--- a/data/evaluation/evaluation_South_Winter_Lettuce.xlsx
+++ b/data/evaluation/evaluation_South_Winter_Lettuce.xlsx
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2085.399836267899</v>
+        <v>2079.902118573267</v>
       </c>
       <c r="C4" t="n">
-        <v>9982149.009632835</v>
+        <v>9948701.133850791</v>
       </c>
       <c r="D4" t="n">
-        <v>3159.453910034586</v>
+        <v>3154.156168272394</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.487219219547118</v>
+        <v>-1.478885122408532</v>
       </c>
     </row>
     <row r="5">
